--- a/database/tb_swara.xlsx
+++ b/database/tb_swara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,12 +439,52 @@
           <t>kriteria</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tj</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kj</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Qj</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pelayanan</t>
-        </is>
+          <t>Kecepatan</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -453,19 +493,64 @@
           <t>Kestabilan</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kecepatan</t>
-        </is>
+          <t>Harga</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3968253968253968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Harga</t>
-        </is>
+          <t>Pelayanan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1803751803751804</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_swara.xlsx
+++ b/database/tb_swara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Qj</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wj</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.4363979848866499</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.311712846347607</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>0.3968253968253968</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1731738035264483</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -551,6 +565,9 @@
       </c>
       <c r="F5" t="n">
         <v>0.1803751803751804</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0787153652392947</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_swara.xlsx
+++ b/database/tb_swara.xlsx
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4363979848866499</v>
+        <v>0.4438799621928167</v>
       </c>
     </row>
     <row r="3">
@@ -508,16 +508,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E3" t="n">
-        <v>1.4</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.311712846347607</v>
+        <v>0.3073015122873346</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.3665158371040724</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1731738035264483</v>
+        <v>0.1626890359168242</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E5" t="n">
-        <v>2.2</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1803751803751804</v>
+        <v>0.1940377961139207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0787153652392947</v>
+        <v>0.08612948960302456</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_swara.xlsx
+++ b/database/tb_swara.xlsx
@@ -473,11 +473,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kecepatan</t>
+          <t>Kestabilan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.666666666666666</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -492,82 +492,82 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4438799621928167</v>
+        <v>0.4363979848866499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Kecepatan</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1.444444444444444</v>
+        <v>1.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3073015122873346</v>
+        <v>0.311712846347607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Harga</t>
+          <t>Pelayanan</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>1.888888888888889</v>
+        <v>1.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3665158371040724</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1626890359168242</v>
+        <v>0.1731738035264483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pelayanan</t>
+          <t>Harga</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8888888888888888</v>
+        <v>1.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1.888888888888889</v>
+        <v>2.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1940377961139207</v>
+        <v>0.1803751803751804</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08612948960302456</v>
+        <v>0.0787153652392947</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_swara.xlsx
+++ b/database/tb_swara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Pelayanan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.859999999999999</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -492,82 +492,57 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4363979848866499</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kecepatan</t>
+          <t>Kestabilan</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.311712846347607</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pelayanan</t>
+          <t>Harga</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1731738035264483</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Harga</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1803751803751804</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0787153652392947</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_swara.xlsx
+++ b/database/tb_swara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pelayanan</t>
+          <t>Kecepatan Sinyal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -492,32 +492,32 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.4363979848866499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Kestabilan Sinyal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.311712846347607</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1731738035264483</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pelayanan Operator</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1803751803751804</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0787153652392947</v>
       </c>
     </row>
   </sheetData>
